--- a/India Steady area FAOSTAT.xlsx
+++ b/India Steady area FAOSTAT.xlsx
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="220">
   <si>
     <t>India</t>
   </si>
@@ -742,6 +742,9 @@
   </si>
   <si>
     <t>World Population Prospects: 2015 revision, Key Findings and Advance Tables.</t>
+  </si>
+  <si>
+    <t>Food Security</t>
   </si>
 </sst>
 </file>
@@ -843,7 +846,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -1011,6 +1014,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1025,7 +1041,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1068,15 +1084,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1149,11 +1156,27 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="7" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -1519,119 +1542,119 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28" t="s">
+      <c r="A1" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
       <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="29">
+      <c r="A2" s="61">
         <v>2010</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="60"/>
       <c r="Q2" s="1"/>
     </row>
     <row r="3" spans="1:17" ht="16" customHeight="1">
-      <c r="A3" s="28"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="28" t="s">
+      <c r="A3" s="60"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="N3" s="28"/>
-      <c r="O3" s="28"/>
-      <c r="P3" s="30">
+      <c r="N3" s="60"/>
+      <c r="O3" s="60"/>
+      <c r="P3" s="62">
         <f>1205625*1000</f>
         <v>1205625000</v>
       </c>
-      <c r="Q3" s="30"/>
+      <c r="Q3" s="62"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="60" t="s">
         <v>121</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="60" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28" t="s">
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60" t="s">
         <v>123</v>
       </c>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28" t="s">
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="60"/>
+      <c r="L4" s="60"/>
+      <c r="M4" s="60" t="s">
         <v>124</v>
       </c>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-      <c r="P4" s="28"/>
+      <c r="N4" s="60"/>
+      <c r="O4" s="60"/>
+      <c r="P4" s="60"/>
       <c r="Q4" s="1"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="28"/>
-      <c r="B5" s="28" t="s">
+      <c r="A5" s="60"/>
+      <c r="B5" s="60" t="s">
         <v>125</v>
       </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28"/>
-      <c r="M5" s="28" t="s">
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="60"/>
+      <c r="L5" s="60"/>
+      <c r="M5" s="60" t="s">
         <v>126</v>
       </c>
-      <c r="N5" s="28"/>
+      <c r="N5" s="60"/>
       <c r="O5" s="2" t="s">
         <v>136</v>
       </c>
@@ -1641,7 +1664,7 @@
       <c r="Q5" s="1"/>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="28"/>
+      <c r="A6" s="60"/>
       <c r="B6" s="2" t="s">
         <v>137</v>
       </c>
@@ -6687,18 +6710,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="M1:P2"/>
+    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="P3:Q3"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="G4:L4"/>
     <mergeCell ref="M4:P4"/>
     <mergeCell ref="B5:L5"/>
     <mergeCell ref="M5:N5"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="M1:P2"/>
-    <mergeCell ref="A3:L3"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="P3:Q3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -6712,10 +6735,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P77"/>
+  <dimension ref="A1:P79"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="A11" sqref="A11:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6735,917 +6758,956 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="25" customFormat="1" ht="45">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="36" t="s">
         <v>142</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="37" t="s">
         <v>184</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="37" t="s">
         <v>185</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="E1" s="37" t="s">
         <v>202</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="F1" s="37" t="s">
         <v>201</v>
       </c>
-      <c r="G1" s="40" t="s">
+      <c r="G1" s="37" t="s">
         <v>203</v>
       </c>
-      <c r="H1" s="41" t="s">
+      <c r="H1" s="38" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="39" t="s">
         <v>207</v>
       </c>
-      <c r="B2" s="55">
+      <c r="B2" s="52">
         <v>1252140000</v>
       </c>
-      <c r="C2" s="55">
+      <c r="C2" s="52">
         <v>6.48</v>
       </c>
-      <c r="D2" s="43">
+      <c r="D2" s="40">
         <v>1038217819.464</v>
       </c>
-      <c r="E2" s="43">
-        <f>$C$37/$B$16</f>
+      <c r="E2" s="40">
+        <f t="shared" ref="E2:E7" si="0">$C$39/$B$18</f>
         <v>1.8163786091907281</v>
       </c>
-      <c r="F2" s="43">
-        <f>E2*$B$14</f>
+      <c r="F2" s="40">
+        <f t="shared" ref="F2:F7" si="1">E2*$B$16</f>
         <v>35546529.381862551</v>
       </c>
-      <c r="G2" s="43">
-        <f t="shared" ref="G2:G7" si="0">D2+F2</f>
+      <c r="G2" s="40">
+        <f t="shared" ref="G2:G7" si="2">D2+F2</f>
         <v>1073764348.8458626</v>
       </c>
-      <c r="H2" s="44">
-        <f>C2-$B$21</f>
+      <c r="H2" s="41">
+        <f t="shared" ref="H2:H7" si="3">C2-$B$23</f>
         <v>1.75681171207831E-3</v>
       </c>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="42">
+      <c r="A3" s="39">
         <v>2013</v>
       </c>
-      <c r="B3" s="55">
+      <c r="B3" s="52">
         <v>1252140000</v>
       </c>
-      <c r="C3" s="56">
+      <c r="C3" s="53">
         <v>7.593332054027484</v>
       </c>
-      <c r="D3" s="43">
-        <f>C3*$B$13</f>
+      <c r="D3" s="40">
+        <f>C3*$B$15</f>
         <v>1216594544.3824861</v>
       </c>
-      <c r="E3" s="43">
-        <f>$C$37/$B$16</f>
+      <c r="E3" s="40">
+        <f t="shared" si="0"/>
         <v>1.8163786091907281</v>
       </c>
-      <c r="F3" s="43">
-        <f>E3*$B$14</f>
+      <c r="F3" s="40">
+        <f t="shared" si="1"/>
         <v>35546529.381862551</v>
       </c>
-      <c r="G3" s="43">
+      <c r="G3" s="40">
+        <f t="shared" si="2"/>
+        <v>1252141073.7643487</v>
+      </c>
+      <c r="H3" s="41">
+        <f t="shared" si="3"/>
+        <v>1.1150888657395619</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="39">
+        <v>2015</v>
+      </c>
+      <c r="B4" s="52">
+        <v>1310000000</v>
+      </c>
+      <c r="C4" s="53">
+        <v>7.954456506890879</v>
+      </c>
+      <c r="D4" s="40">
+        <f>C4*$B$15</f>
+        <v>1274453470.6181288</v>
+      </c>
+      <c r="E4" s="40">
         <f t="shared" si="0"/>
-        <v>1252141073.7643487</v>
-      </c>
-      <c r="H3" s="44">
-        <f>C3-$B$21</f>
-        <v>1.1150888657395619</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
-      <c r="A4" s="42">
-        <v>2015</v>
-      </c>
-      <c r="B4" s="55">
-        <v>1310000000</v>
-      </c>
-      <c r="C4" s="56">
-        <v>7.954456506890879</v>
-      </c>
-      <c r="D4" s="43">
-        <f>C4*$B$13</f>
-        <v>1274453470.6181288</v>
-      </c>
-      <c r="E4" s="43">
-        <f>$C$37/$B$16</f>
         <v>1.8163786091907281</v>
       </c>
-      <c r="F4" s="43">
-        <f>E4*$B$14</f>
+      <c r="F4" s="40">
+        <f t="shared" si="1"/>
         <v>35546529.381862551</v>
       </c>
-      <c r="G4" s="43">
+      <c r="G4" s="40">
+        <f t="shared" si="2"/>
+        <v>1309999999.9999914</v>
+      </c>
+      <c r="H4" s="41">
+        <f t="shared" si="3"/>
+        <v>1.4762133186029569</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="39">
+        <v>2022</v>
+      </c>
+      <c r="B5" s="52">
+        <v>1400000000</v>
+      </c>
+      <c r="C5" s="53">
+        <v>8.5161883410652219</v>
+      </c>
+      <c r="D5" s="40">
+        <f>C5*$B$15</f>
+        <v>1364453470.6181285</v>
+      </c>
+      <c r="E5" s="40">
         <f t="shared" si="0"/>
-        <v>1309999999.9999914</v>
-      </c>
-      <c r="H4" s="44">
-        <f>C4-$B$21</f>
-        <v>1.4762133186029569</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
-      <c r="A5" s="42">
-        <v>2022</v>
-      </c>
-      <c r="B5" s="55">
-        <v>1400000000</v>
-      </c>
-      <c r="C5" s="56">
-        <v>8.5161883410652219</v>
-      </c>
-      <c r="D5" s="43">
-        <f>C5*$B$13</f>
-        <v>1364453470.6181285</v>
-      </c>
-      <c r="E5" s="43">
-        <f>$C$37/$B$16</f>
         <v>1.8163786091907281</v>
       </c>
-      <c r="F5" s="43">
-        <f>E5*$B$14</f>
+      <c r="F5" s="40">
+        <f t="shared" si="1"/>
         <v>35546529.381862551</v>
       </c>
-      <c r="G5" s="43">
+      <c r="G5" s="40">
+        <f t="shared" si="2"/>
+        <v>1399999999.9999912</v>
+      </c>
+      <c r="H5" s="41">
+        <f t="shared" si="3"/>
+        <v>2.0379451527772998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="39">
+        <v>2030</v>
+      </c>
+      <c r="B6" s="52">
+        <v>1500000000</v>
+      </c>
+      <c r="C6" s="53">
+        <v>9.1403348234811599</v>
+      </c>
+      <c r="D6" s="40">
+        <f>C6*$B$15</f>
+        <v>1464453470.6181288</v>
+      </c>
+      <c r="E6" s="40">
         <f t="shared" si="0"/>
-        <v>1399999999.9999912</v>
-      </c>
-      <c r="H5" s="44">
-        <f>C5-$B$21</f>
-        <v>2.0379451527772998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
-      <c r="A6" s="42">
-        <v>2030</v>
-      </c>
-      <c r="B6" s="55">
-        <v>1500000000</v>
-      </c>
-      <c r="C6" s="56">
-        <v>9.1403348234811599</v>
-      </c>
-      <c r="D6" s="43">
-        <f>C6*$B$13</f>
-        <v>1464453470.6181288</v>
-      </c>
-      <c r="E6" s="43">
-        <f>$C$37/$B$16</f>
         <v>1.8163786091907281</v>
       </c>
-      <c r="F6" s="43">
-        <f>E6*$B$14</f>
+      <c r="F6" s="40">
+        <f t="shared" si="1"/>
         <v>35546529.381862551</v>
       </c>
-      <c r="G6" s="43">
+      <c r="G6" s="40">
+        <f t="shared" si="2"/>
+        <v>1499999999.9999914</v>
+      </c>
+      <c r="H6" s="41">
+        <f t="shared" si="3"/>
+        <v>2.6620916351932378</v>
+      </c>
+      <c r="P6" s="10"/>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="42">
+        <v>2050</v>
+      </c>
+      <c r="B7" s="56">
+        <v>1700000000</v>
+      </c>
+      <c r="C7" s="54">
+        <v>10.388627788313034</v>
+      </c>
+      <c r="D7" s="43">
+        <f>C7*$B$15</f>
+        <v>1664453470.6181288</v>
+      </c>
+      <c r="E7" s="43">
         <f t="shared" si="0"/>
-        <v>1499999999.9999914</v>
-      </c>
-      <c r="H6" s="44">
-        <f>C6-$B$21</f>
-        <v>2.6620916351932378</v>
-      </c>
-      <c r="P6" s="10"/>
-    </row>
-    <row r="7" spans="1:16">
-      <c r="A7" s="45">
-        <v>2050</v>
-      </c>
-      <c r="B7" s="59">
-        <v>1700000000</v>
-      </c>
-      <c r="C7" s="57">
-        <v>10.388627788313034</v>
-      </c>
-      <c r="D7" s="46">
-        <f>C7*$B$13</f>
-        <v>1664453470.6181288</v>
-      </c>
-      <c r="E7" s="46">
-        <f>$C$37/$B$16</f>
         <v>1.8163786091907281</v>
       </c>
-      <c r="F7" s="46">
-        <f>E7*$B$14</f>
+      <c r="F7" s="43">
+        <f t="shared" si="1"/>
         <v>35546529.381862551</v>
       </c>
-      <c r="G7" s="46">
-        <f t="shared" si="0"/>
+      <c r="G7" s="43">
+        <f t="shared" si="2"/>
         <v>1699999999.9999914</v>
       </c>
-      <c r="H7" s="47">
-        <f>C7-$B$21</f>
+      <c r="H7" s="44">
+        <f t="shared" si="3"/>
         <v>3.9103846000251119</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="15" customHeight="1">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="65" t="s">
         <v>217</v>
       </c>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="15"/>
     </row>
     <row r="9" spans="1:16">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="66" t="s">
         <v>218</v>
       </c>
+      <c r="B9" s="45"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="21"/>
     </row>
     <row r="10" spans="1:16">
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
+      <c r="A10" s="67"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
     </row>
     <row r="11" spans="1:16">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="68" t="s">
+        <v>219</v>
+      </c>
+      <c r="B11" s="69">
+        <f>G2/B2</f>
+        <v>0.85754336483609073</v>
+      </c>
+      <c r="C11" s="33"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="29" t="s">
         <v>143</v>
       </c>
-      <c r="B11" s="60">
+      <c r="B13" s="57">
         <v>297319000</v>
       </c>
-      <c r="C11" s="31" t="s">
+      <c r="C13" s="28" t="s">
         <v>208</v>
       </c>
-      <c r="D11" s="37"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="38"/>
-    </row>
-    <row r="12" spans="1:16">
-      <c r="A12" s="33" t="s">
+      <c r="D13" s="34"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="35"/>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="30" t="s">
         <v>162</v>
       </c>
-      <c r="B12" s="55">
-        <f>B11/100*D58</f>
+      <c r="B14" s="52">
+        <f>B13/100*D60</f>
         <v>179788799.29999998</v>
       </c>
-      <c r="C12" s="36"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="18"/>
-      <c r="K12" s="26"/>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="A13" s="33" t="s">
+      <c r="C14" s="33"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="18"/>
+      <c r="K14" s="26"/>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="30" t="s">
         <v>171</v>
       </c>
-      <c r="B13" s="56">
-        <f>B12-B34</f>
+      <c r="B15" s="53">
+        <f>B14-B36</f>
         <v>160218799.29999998</v>
       </c>
-      <c r="C13" s="36"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="18"/>
-      <c r="H13" s="13"/>
-      <c r="K13" s="26"/>
-    </row>
-    <row r="14" spans="1:16">
-      <c r="A14" s="34" t="s">
+      <c r="C15" s="33"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="18"/>
+      <c r="H15" s="13"/>
+      <c r="K15" s="26"/>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="31" t="s">
         <v>170</v>
       </c>
-      <c r="B14" s="57">
-        <f>B12-B13</f>
+      <c r="B16" s="54">
+        <f>B14-B15</f>
         <v>19570000</v>
       </c>
-      <c r="C14" s="48"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="21"/>
-      <c r="H14" s="12"/>
-      <c r="K14" s="26"/>
-    </row>
-    <row r="15" spans="1:16">
-      <c r="K15" s="26"/>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="A16" s="32" t="s">
+      <c r="C16" s="45"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="21"/>
+      <c r="H16" s="12"/>
+      <c r="K16" s="26"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="K17" s="26"/>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="29" t="s">
         <v>144</v>
       </c>
-      <c r="B16" s="60">
+      <c r="B18" s="57">
         <v>2459</v>
       </c>
-      <c r="C16" s="49" t="s">
+      <c r="C18" s="46" t="s">
         <v>209</v>
       </c>
-      <c r="D16" s="31"/>
-      <c r="E16" s="15"/>
-      <c r="K16" s="26"/>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="33" t="s">
+      <c r="D18" s="28"/>
+      <c r="E18" s="15"/>
+      <c r="K18" s="26"/>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="30" t="s">
         <v>145</v>
       </c>
-      <c r="B17" s="55">
+      <c r="B19" s="52">
         <v>2223</v>
       </c>
-      <c r="C17" s="36"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="18"/>
-      <c r="K17" s="26"/>
-    </row>
-    <row r="18" spans="1:11" ht="30">
-      <c r="A18" s="34" t="s">
+      <c r="C19" s="33"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="18"/>
+      <c r="K19" s="26"/>
+    </row>
+    <row r="20" spans="1:11" ht="30">
+      <c r="A20" s="31" t="s">
         <v>146</v>
       </c>
-      <c r="B18" s="57">
-        <f>B16-B17</f>
+      <c r="B20" s="54">
+        <f>B18-B19</f>
         <v>236</v>
       </c>
-      <c r="C18" s="48"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="21"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="K18" s="26"/>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="K19" s="26"/>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="C20" s="45"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="21"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
       <c r="K20" s="26"/>
     </row>
-    <row r="21" spans="1:11" ht="45">
-      <c r="A21" s="32" t="s">
+    <row r="21" spans="1:11">
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="K21" s="26"/>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="K22" s="26"/>
+    </row>
+    <row r="23" spans="1:11" ht="45">
+      <c r="A23" s="29" t="s">
         <v>210</v>
       </c>
-      <c r="B21" s="61">
-        <f>B25/B16*B24</f>
+      <c r="B23" s="58">
+        <f>B27/B18*B26</f>
         <v>6.4782431882879221</v>
       </c>
-      <c r="C21" s="58"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="K21" s="26"/>
-    </row>
-    <row r="22" spans="1:11" ht="30">
-      <c r="A22" s="34" t="s">
-        <v>187</v>
-      </c>
-      <c r="B22" s="48">
-        <f>C37/B16</f>
-        <v>1.8163786091907281</v>
-      </c>
-      <c r="C22" s="50"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="K22" s="26"/>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="C23" s="36"/>
+      <c r="C23" s="55"/>
       <c r="G23" s="12"/>
       <c r="H23" s="12"/>
       <c r="K23" s="26"/>
     </row>
     <row r="24" spans="1:11" ht="30">
-      <c r="A24" s="32" t="s">
+      <c r="A24" s="31" t="s">
+        <v>187</v>
+      </c>
+      <c r="B24" s="45">
+        <f>C39/B18</f>
+        <v>1.8163786091907281</v>
+      </c>
+      <c r="C24" s="47"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="K24" s="26"/>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="C25" s="33"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="K25" s="26"/>
+    </row>
+    <row r="26" spans="1:11" ht="30">
+      <c r="A26" s="29" t="s">
         <v>205</v>
       </c>
-      <c r="B24" s="61">
+      <c r="B26" s="58">
         <v>5.9</v>
       </c>
-      <c r="C24" s="63" t="s">
+      <c r="C26" s="63" t="s">
         <v>211</v>
       </c>
-      <c r="D24" s="63"/>
-      <c r="E24" s="63"/>
-      <c r="F24" s="63"/>
-      <c r="G24" s="63"/>
-      <c r="H24" s="64"/>
-      <c r="K24" s="26"/>
-    </row>
-    <row r="25" spans="1:11" ht="30">
-      <c r="A25" s="33" t="s">
+      <c r="D26" s="63"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="63"/>
+      <c r="G26" s="63"/>
+      <c r="H26" s="64"/>
+      <c r="K26" s="26"/>
+    </row>
+    <row r="27" spans="1:11" ht="30">
+      <c r="A27" s="30" t="s">
         <v>204</v>
       </c>
-      <c r="B25" s="55">
+      <c r="B27" s="52">
         <v>2700</v>
       </c>
-      <c r="C25" s="36"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="18"/>
-      <c r="K25" s="26"/>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="A26" s="34"/>
-      <c r="B26" s="48"/>
-      <c r="C26" s="48"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="51"/>
-      <c r="K26" s="26"/>
-    </row>
-    <row r="27" spans="1:11">
+      <c r="C27" s="33"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="18"/>
       <c r="K27" s="26"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="H28" s="12"/>
+      <c r="A28" s="31"/>
+      <c r="B28" s="45"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="48"/>
+      <c r="K28" s="26"/>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="K29" s="26"/>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="32" t="s">
+      <c r="H30" s="12"/>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="29" t="s">
         <v>161</v>
       </c>
-      <c r="B30" s="60">
+      <c r="B32" s="57">
         <v>12040000</v>
       </c>
-      <c r="C30" s="49" t="s">
+      <c r="C32" s="46" t="s">
         <v>181</v>
       </c>
-      <c r="D30" s="31"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="15"/>
-    </row>
-    <row r="31" spans="1:11">
-      <c r="A31" s="33"/>
-      <c r="B31" s="55">
+      <c r="D32" s="28"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="15"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="30"/>
+      <c r="B33" s="52">
         <v>3700000</v>
       </c>
-      <c r="C31" s="36"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="11"/>
-    </row>
-    <row r="32" spans="1:11">
-      <c r="A32" s="33"/>
-      <c r="B32" s="55">
-        <v>1500000</v>
-      </c>
-      <c r="C32" s="36"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="18"/>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="33"/>
-      <c r="B33" s="55">
-        <v>2330000</v>
-      </c>
-      <c r="C33" s="36"/>
+      <c r="C33" s="33"/>
       <c r="D33" s="17"/>
       <c r="E33" s="17"/>
       <c r="F33" s="18"/>
-      <c r="G33" s="12"/>
+      <c r="G33" s="11"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="34" t="s">
+      <c r="A34" s="30"/>
+      <c r="B34" s="52">
+        <v>1500000</v>
+      </c>
+      <c r="C34" s="33"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="18"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="30"/>
+      <c r="B35" s="52">
+        <v>2330000</v>
+      </c>
+      <c r="C35" s="33"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="12"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="31" t="s">
         <v>182</v>
       </c>
-      <c r="B34" s="59">
-        <f>SUM(B30:B33)</f>
+      <c r="B36" s="56">
+        <f>SUM(B32:B35)</f>
         <v>19570000</v>
       </c>
-      <c r="C34" s="48"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="21"/>
-    </row>
-    <row r="36" spans="1:7" ht="30">
-      <c r="A36" s="32"/>
-      <c r="B36" s="35" t="s">
+      <c r="C36" s="45"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="21"/>
+    </row>
+    <row r="38" spans="1:7" ht="30">
+      <c r="A38" s="29"/>
+      <c r="B38" s="32" t="s">
         <v>175</v>
       </c>
-      <c r="C36" s="35" t="s">
+      <c r="C38" s="32" t="s">
         <v>186</v>
       </c>
-      <c r="D36" s="15"/>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="33" t="s">
+      <c r="D38" s="15"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="30" t="s">
         <v>172</v>
       </c>
-      <c r="B37" s="55">
+      <c r="B39" s="52">
         <f>1100000/0.4/1000</f>
         <v>2750</v>
       </c>
-      <c r="C37" s="56">
-        <f>B37*D71+B38*D70+B39*D72+B40*D73</f>
+      <c r="C39" s="53">
+        <f>B39*D73+B40*D72+B41*D74+B42*D75</f>
         <v>4466.4750000000004</v>
       </c>
-      <c r="D37" s="22"/>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="33" t="s">
+      <c r="D39" s="22"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="30" t="s">
         <v>173</v>
       </c>
-      <c r="B38" s="55">
+      <c r="B40" s="52">
         <f>3500000/0.4/1000</f>
         <v>8750</v>
       </c>
-      <c r="C38" s="36" t="s">
+      <c r="C40" s="33" t="s">
         <v>212</v>
       </c>
-      <c r="D38" s="18"/>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="33" t="s">
+      <c r="D40" s="18"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="30" t="s">
         <v>174</v>
       </c>
-      <c r="B39" s="55">
+      <c r="B41" s="52">
         <f>1400000/0.4/1000</f>
         <v>3500</v>
       </c>
-      <c r="C39" s="36">
-        <f>C37/B16</f>
+      <c r="C41" s="33">
+        <f>C39/B18</f>
         <v>1.8163786091907281</v>
       </c>
-      <c r="D39" s="44"/>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="52" t="s">
+      <c r="D41" s="41"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="49" t="s">
         <v>183</v>
       </c>
-      <c r="B40" s="55">
+      <c r="B42" s="52">
         <f>3000000/0.4/1000</f>
         <v>7500</v>
       </c>
-      <c r="C40" s="36"/>
-      <c r="D40" s="18"/>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="62" t="s">
+      <c r="C42" s="33"/>
+      <c r="D42" s="18"/>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="59" t="s">
         <v>180</v>
       </c>
-      <c r="B41" s="36"/>
-      <c r="C41" s="36"/>
-      <c r="D41" s="18"/>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="16" t="s">
+      <c r="B43" s="33"/>
+      <c r="C43" s="33"/>
+      <c r="D43" s="18"/>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="16" t="s">
         <v>215</v>
       </c>
-      <c r="B42" s="36"/>
-      <c r="C42" s="36"/>
-      <c r="D42" s="18"/>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="19" t="s">
+      <c r="B44" s="33"/>
+      <c r="C44" s="33"/>
+      <c r="D44" s="18"/>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="19" t="s">
         <v>216</v>
       </c>
-      <c r="B43" s="48"/>
-      <c r="C43" s="48"/>
-      <c r="D43" s="21"/>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="27"/>
-    </row>
-    <row r="45" spans="1:7" ht="30">
-      <c r="A45" s="32"/>
-      <c r="B45" s="35" t="s">
+      <c r="B45" s="45"/>
+      <c r="C45" s="45"/>
+      <c r="D45" s="21"/>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="27"/>
+    </row>
+    <row r="47" spans="1:7" ht="30">
+      <c r="A47" s="29"/>
+      <c r="B47" s="32" t="s">
         <v>179</v>
       </c>
-      <c r="C45" s="35"/>
-      <c r="D45" s="15"/>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="33" t="s">
+      <c r="C47" s="32"/>
+      <c r="D47" s="15"/>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="30" t="s">
         <v>147</v>
       </c>
-      <c r="B46" s="36" t="s">
+      <c r="B48" s="33" t="s">
         <v>148</v>
       </c>
-      <c r="C46" s="36" t="s">
+      <c r="C48" s="33" t="s">
         <v>149</v>
       </c>
-      <c r="D46" s="18" t="s">
+      <c r="D48" s="18" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="30">
-      <c r="A47" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="B47" s="36" t="s">
+    <row r="49" spans="1:4" ht="30">
+      <c r="A49" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49" s="33" t="s">
         <v>151</v>
       </c>
-      <c r="C47" s="36" t="s">
+      <c r="C49" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="D47" s="18">
+      <c r="D49" s="18">
         <v>0.05</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="30">
-      <c r="A48" s="33"/>
-      <c r="B48" s="36" t="s">
+    <row r="50" spans="1:4" ht="30">
+      <c r="A50" s="30"/>
+      <c r="B50" s="33" t="s">
         <v>154</v>
       </c>
-      <c r="C48" s="36" t="s">
+      <c r="C50" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="D48" s="18">
+      <c r="D50" s="18">
         <v>1.8</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="30">
-      <c r="A49" s="33"/>
-      <c r="B49" s="36" t="s">
+    <row r="51" spans="1:4" ht="30">
+      <c r="A51" s="30"/>
+      <c r="B51" s="33" t="s">
         <v>155</v>
       </c>
-      <c r="C49" s="36" t="s">
+      <c r="C51" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="D49" s="18">
+      <c r="D51" s="18">
         <v>5.39</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="30">
-      <c r="A50" s="33"/>
-      <c r="B50" s="36" t="s">
+    <row r="52" spans="1:4" ht="30">
+      <c r="A52" s="30"/>
+      <c r="B52" s="33" t="s">
         <v>156</v>
       </c>
-      <c r="C50" s="36" t="s">
+      <c r="C52" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="D50" s="18">
+      <c r="D52" s="18">
         <v>1.29</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="33"/>
-      <c r="B51" s="36" t="s">
+    <row r="53" spans="1:4">
+      <c r="A53" s="30"/>
+      <c r="B53" s="33" t="s">
         <v>157</v>
       </c>
-      <c r="C51" s="36"/>
-      <c r="D51" s="18"/>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="33"/>
-      <c r="B52" s="36"/>
-      <c r="C52" s="36"/>
-      <c r="D52" s="18"/>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="33" t="s">
+      <c r="C53" s="33"/>
+      <c r="D53" s="18"/>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="30"/>
+      <c r="B54" s="33"/>
+      <c r="C54" s="33"/>
+      <c r="D54" s="18"/>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="30" t="s">
         <v>158</v>
       </c>
-      <c r="B53" s="36" t="s">
+      <c r="B55" s="33" t="s">
         <v>159</v>
       </c>
-      <c r="C53" s="36" t="s">
+      <c r="C55" s="33" t="s">
         <v>160</v>
       </c>
-      <c r="D53" s="18"/>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" s="53" t="s">
+      <c r="D55" s="18"/>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="50" t="s">
         <v>213</v>
       </c>
-      <c r="B54" s="48"/>
-      <c r="C54" s="48"/>
-      <c r="D54" s="21"/>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="32" t="s">
+      <c r="B56" s="45"/>
+      <c r="C56" s="45"/>
+      <c r="D56" s="21"/>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="29" t="s">
         <v>178</v>
       </c>
-      <c r="B56" s="35"/>
-      <c r="C56" s="35"/>
-      <c r="D56" s="15"/>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="33" t="s">
+      <c r="B58" s="32"/>
+      <c r="C58" s="32"/>
+      <c r="D58" s="15"/>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="30" t="s">
         <v>147</v>
       </c>
-      <c r="B57" s="36" t="s">
+      <c r="B59" s="33" t="s">
         <v>148</v>
       </c>
-      <c r="C57" s="36" t="s">
+      <c r="C59" s="33" t="s">
         <v>149</v>
       </c>
-      <c r="D57" s="18" t="s">
+      <c r="D59" s="18" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
-      <c r="A58" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="B58" s="36" t="s">
+    <row r="60" spans="1:4">
+      <c r="A60" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B60" s="33" t="s">
         <v>163</v>
       </c>
-      <c r="C58" s="36" t="s">
+      <c r="C60" s="33" t="s">
         <v>164</v>
       </c>
-      <c r="D58" s="18">
+      <c r="D60" s="18">
         <v>60.47</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
-      <c r="A59" s="33"/>
-      <c r="B59" s="36" t="s">
+    <row r="61" spans="1:4">
+      <c r="A61" s="30"/>
+      <c r="B61" s="33" t="s">
         <v>165</v>
       </c>
-      <c r="C59" s="36" t="s">
+      <c r="C61" s="33" t="s">
         <v>166</v>
       </c>
-      <c r="D59" s="18">
+      <c r="D61" s="18">
         <v>87.51</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="33"/>
-      <c r="B60" s="36" t="s">
+    <row r="62" spans="1:4">
+      <c r="A62" s="30"/>
+      <c r="B62" s="33" t="s">
         <v>167</v>
       </c>
-      <c r="C60" s="36" t="s">
+      <c r="C62" s="33" t="s">
         <v>166</v>
       </c>
-      <c r="D60" s="18">
+      <c r="D62" s="18">
         <v>6.84</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="45">
-      <c r="A61" s="33"/>
-      <c r="B61" s="36" t="s">
+    <row r="63" spans="1:4" ht="30">
+      <c r="A63" s="30"/>
+      <c r="B63" s="33" t="s">
         <v>168</v>
       </c>
-      <c r="C61" s="36" t="s">
+      <c r="C63" s="33" t="s">
         <v>166</v>
       </c>
-      <c r="D61" s="18">
+      <c r="D63" s="18">
         <v>5.64</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="30">
-      <c r="A62" s="33"/>
-      <c r="B62" s="36" t="s">
+    <row r="64" spans="1:4" ht="30">
+      <c r="A64" s="30"/>
+      <c r="B64" s="33" t="s">
         <v>169</v>
       </c>
-      <c r="C62" s="36" t="s">
+      <c r="C64" s="33" t="s">
         <v>166</v>
       </c>
-      <c r="D62" s="18">
+      <c r="D64" s="18">
         <v>37.119999999999997</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
-      <c r="A63" s="33" t="s">
+    <row r="65" spans="1:4">
+      <c r="A65" s="30" t="s">
         <v>153</v>
       </c>
-      <c r="B63" s="36" t="s">
+      <c r="B65" s="33" t="s">
         <v>157</v>
       </c>
-      <c r="C63" s="36"/>
-      <c r="D63" s="18"/>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64" s="33"/>
-      <c r="B64" s="36"/>
-      <c r="C64" s="36"/>
-      <c r="D64" s="18"/>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65" s="33" t="s">
+      <c r="C65" s="33"/>
+      <c r="D65" s="18"/>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="30"/>
+      <c r="B66" s="33"/>
+      <c r="C66" s="33"/>
+      <c r="D66" s="18"/>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="30" t="s">
         <v>158</v>
       </c>
-      <c r="B65" s="36" t="s">
+      <c r="B67" s="33" t="s">
         <v>159</v>
       </c>
-      <c r="C65" s="36" t="s">
+      <c r="C67" s="33" t="s">
         <v>160</v>
       </c>
-      <c r="D65" s="18"/>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66" s="53" t="s">
+      <c r="D67" s="18"/>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="50" t="s">
         <v>214</v>
       </c>
-      <c r="B66" s="48"/>
-      <c r="C66" s="48"/>
-      <c r="D66" s="21"/>
-    </row>
-    <row r="68" spans="1:4" ht="30">
-      <c r="A68" s="32" t="s">
+      <c r="B68" s="45"/>
+      <c r="C68" s="45"/>
+      <c r="D68" s="21"/>
+    </row>
+    <row r="70" spans="1:4" ht="30">
+      <c r="A70" s="29" t="s">
         <v>177</v>
       </c>
-      <c r="B68" s="35"/>
-      <c r="C68" s="35"/>
-      <c r="D68" s="15"/>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="A69" s="33" t="s">
+      <c r="B70" s="32"/>
+      <c r="C70" s="32"/>
+      <c r="D70" s="15"/>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="30" t="s">
         <v>147</v>
       </c>
-      <c r="B69" s="36" t="s">
+      <c r="B71" s="33" t="s">
         <v>148</v>
       </c>
-      <c r="C69" s="36" t="s">
+      <c r="C71" s="33" t="s">
         <v>149</v>
       </c>
-      <c r="D69" s="18" t="s">
+      <c r="D71" s="18" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
-      <c r="A70" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="B70" s="36" t="s">
+    <row r="72" spans="1:4">
+      <c r="A72" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B72" s="33" t="s">
         <v>151</v>
       </c>
-      <c r="C70" s="36" t="s">
+      <c r="C72" s="33" t="s">
         <v>176</v>
       </c>
-      <c r="D70" s="54">
+      <c r="D72" s="51">
         <v>6.2E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
-      <c r="A71" s="33"/>
-      <c r="B71" s="36" t="s">
+    <row r="73" spans="1:4">
+      <c r="A73" s="30"/>
+      <c r="B73" s="33" t="s">
         <v>154</v>
       </c>
-      <c r="C71" s="36" t="s">
+      <c r="C73" s="33" t="s">
         <v>176</v>
       </c>
-      <c r="D71" s="54">
+      <c r="D73" s="51">
         <v>0.21110000000000001</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
-      <c r="A72" s="33"/>
-      <c r="B72" s="36" t="s">
+    <row r="74" spans="1:4">
+      <c r="A74" s="30"/>
+      <c r="B74" s="33" t="s">
         <v>155</v>
       </c>
-      <c r="C72" s="36" t="s">
+      <c r="C74" s="33" t="s">
         <v>176</v>
       </c>
-      <c r="D72" s="54">
+      <c r="D74" s="51">
         <v>0.63170000000000004</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
-      <c r="A73" s="33"/>
-      <c r="B73" s="36" t="s">
+    <row r="75" spans="1:4">
+      <c r="A75" s="30"/>
+      <c r="B75" s="33" t="s">
         <v>156</v>
       </c>
-      <c r="C73" s="36" t="s">
+      <c r="C75" s="33" t="s">
         <v>176</v>
       </c>
-      <c r="D73" s="54">
+      <c r="D75" s="51">
         <v>0.151</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
-      <c r="A74" s="33" t="s">
+    <row r="76" spans="1:4">
+      <c r="A76" s="30" t="s">
         <v>153</v>
       </c>
-      <c r="B74" s="36" t="s">
+      <c r="B76" s="33" t="s">
         <v>157</v>
       </c>
-      <c r="C74" s="36"/>
-      <c r="D74" s="18"/>
-    </row>
-    <row r="75" spans="1:4">
-      <c r="A75" s="33"/>
-      <c r="B75" s="36"/>
-      <c r="C75" s="36"/>
-      <c r="D75" s="18"/>
-    </row>
-    <row r="76" spans="1:4">
-      <c r="A76" s="33" t="s">
+      <c r="C76" s="33"/>
+      <c r="D76" s="18"/>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="30"/>
+      <c r="B77" s="33"/>
+      <c r="C77" s="33"/>
+      <c r="D77" s="18"/>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="30" t="s">
         <v>158</v>
       </c>
-      <c r="B76" s="36" t="s">
+      <c r="B78" s="33" t="s">
         <v>159</v>
       </c>
-      <c r="C76" s="36" t="s">
+      <c r="C78" s="33" t="s">
         <v>160</v>
       </c>
-      <c r="D76" s="18"/>
-    </row>
-    <row r="77" spans="1:4">
-      <c r="A77" s="53" t="s">
+      <c r="D78" s="18"/>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="50" t="s">
         <v>214</v>
       </c>
-      <c r="B77" s="48"/>
-      <c r="C77" s="48"/>
-      <c r="D77" s="21"/>
+      <c r="B79" s="45"/>
+      <c r="C79" s="45"/>
+      <c r="D79" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C24:H24"/>
+    <mergeCell ref="C26:H26"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A41" r:id="rId1"/>
-    <hyperlink ref="C30" r:id="rId2" location="5."/>
-    <hyperlink ref="C16" r:id="rId3"/>
-    <hyperlink ref="A54" r:id="rId4"/>
-    <hyperlink ref="A66" r:id="rId5"/>
-    <hyperlink ref="A77" r:id="rId6"/>
+    <hyperlink ref="A43" r:id="rId1"/>
+    <hyperlink ref="C32" r:id="rId2" location="5."/>
+    <hyperlink ref="C18" r:id="rId3"/>
+    <hyperlink ref="A56" r:id="rId4"/>
+    <hyperlink ref="A68" r:id="rId5"/>
+    <hyperlink ref="A79" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="45" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
